--- a/www.eia.gov/forecasts/steo/xls/Fig30.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig30.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Heating Degree-Days</t>
@@ -71,7 +71,7 @@
     <t>Total Winter</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note: EIA calculations based on National Oceanic and Atmospheric Administration (NOAA) data. Horizontal lines indicate each month's prior 10-year average (Oct 2006 - Mar 2016). Projections reflect NOAA's 14-16 month outlook.</t>
@@ -346,22 +346,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>220.44996603999999</c:v>
+                  <c:v>220.44996631999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613.95444449000001</c:v>
+                  <c:v>613.95444473999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>705.22987741999998</c:v>
+                  <c:v>705.22987746000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>889.88506514999995</c:v>
+                  <c:v>889.91030916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>866.69857182999999</c:v>
+                  <c:v>866.62847237999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>583.54586855000002</c:v>
+                  <c:v>583.53791102000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,22 +415,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>226.99519315000001</c:v>
+                  <c:v>226.95825633000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445.14285796000001</c:v>
+                  <c:v>445.21883613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>581.24577615999999</c:v>
+                  <c:v>581.17146408999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>869.88121919000002</c:v>
+                  <c:v>870.11669567000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>627.08695911999996</c:v>
+                  <c:v>627.91217326000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>449.06536534000003</c:v>
+                  <c:v>449.17779856999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,22 +489,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>197.23451503999999</c:v>
+                  <c:v>197.05462768999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>415.75521348000001</c:v>
+                  <c:v>417.05579720999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>756.69861555</c:v>
+                  <c:v>782.66832546000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>850.26664846999995</c:v>
+                  <c:v>744.49828066999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>682.38629286000003</c:v>
+                  <c:v>685.60789922000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>551.05949040999997</c:v>
+                  <c:v>551.82551949000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,22 +563,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>243.36463282</c:v>
+                  <c:v>243.15411477999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>485.15319199999999</c:v>
+                  <c:v>485.11934280999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>766.77735847999998</c:v>
+                  <c:v>767.01030118000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>844.28042373999995</c:v>
+                  <c:v>844.34603315000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>680.21174999000004</c:v>
+                  <c:v>682.85366234000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>556.11574703999997</c:v>
+                  <c:v>556.64282671000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -593,8 +593,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446450496"/>
-        <c:axId val="446449936"/>
+        <c:axId val="640690112"/>
+        <c:axId val="640690672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -670,8 +670,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446450496"/>
-        <c:axId val="446449936"/>
+        <c:axId val="640690112"/>
+        <c:axId val="640690672"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -744,22 +744,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>256.94930105999998</c:v>
+                  <c:v>256.94560739000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514.81385582999997</c:v>
+                  <c:v>514.82145361000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>762.40477958999998</c:v>
+                  <c:v>762.39734824000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>887.52660000000003</c:v>
+                  <c:v>887.55268064999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>746.61919999999998</c:v>
+                  <c:v>746.69470000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>557.48940000000005</c:v>
+                  <c:v>557.49990000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,11 +774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446448816"/>
-        <c:axId val="446449376"/>
+        <c:axId val="640691792"/>
+        <c:axId val="640691232"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="446450496"/>
+        <c:axId val="640690112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446449936"/>
+        <c:crossAx val="640690672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -796,7 +796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446449936"/>
+        <c:axId val="640690672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -824,13 +824,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446450496"/>
+        <c:crossAx val="640690112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446449376"/>
+        <c:axId val="640691232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -847,13 +847,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446448816"/>
+        <c:crossAx val="640691792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446448816"/>
+        <c:axId val="640691792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="446449376"/>
+        <c:crossAx val="640691232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -995,7 +995,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1184,19 +1184,19 @@
             <v>October</v>
           </cell>
           <cell r="B27">
-            <v>220.44996603999999</v>
+            <v>220.44996631999999</v>
           </cell>
           <cell r="C27">
-            <v>226.99519315000001</v>
+            <v>226.95825633000001</v>
           </cell>
           <cell r="D27">
-            <v>197.23451503999999</v>
+            <v>197.05462768999999</v>
           </cell>
           <cell r="E27">
-            <v>243.36463282</v>
+            <v>243.15411477999999</v>
           </cell>
           <cell r="F27">
-            <v>256.94930105999998</v>
+            <v>256.94560739000002</v>
           </cell>
         </row>
         <row r="28">
@@ -1204,19 +1204,19 @@
             <v>November</v>
           </cell>
           <cell r="B28">
-            <v>613.95444449000001</v>
+            <v>613.95444473999999</v>
           </cell>
           <cell r="C28">
-            <v>445.14285796000001</v>
+            <v>445.21883613</v>
           </cell>
           <cell r="D28">
-            <v>415.75521348000001</v>
+            <v>417.05579720999998</v>
           </cell>
           <cell r="E28">
-            <v>485.15319199999999</v>
+            <v>485.11934280999998</v>
           </cell>
           <cell r="F28">
-            <v>514.81385582999997</v>
+            <v>514.82145361000005</v>
           </cell>
         </row>
         <row r="29">
@@ -1224,19 +1224,19 @@
             <v>December</v>
           </cell>
           <cell r="B29">
-            <v>705.22987741999998</v>
+            <v>705.22987746000001</v>
           </cell>
           <cell r="C29">
-            <v>581.24577615999999</v>
+            <v>581.17146408999997</v>
           </cell>
           <cell r="D29">
-            <v>756.69861555</v>
+            <v>782.66832546000001</v>
           </cell>
           <cell r="E29">
-            <v>766.77735847999998</v>
+            <v>767.01030118000006</v>
           </cell>
           <cell r="F29">
-            <v>762.40477958999998</v>
+            <v>762.39734824000004</v>
           </cell>
         </row>
         <row r="30">
@@ -1244,19 +1244,19 @@
             <v>January</v>
           </cell>
           <cell r="B30">
-            <v>889.88506514999995</v>
+            <v>889.91030916</v>
           </cell>
           <cell r="C30">
-            <v>869.88121919000002</v>
+            <v>870.11669567000001</v>
           </cell>
           <cell r="D30">
-            <v>850.26664846999995</v>
+            <v>744.49828066999999</v>
           </cell>
           <cell r="E30">
-            <v>844.28042373999995</v>
+            <v>844.34603315000004</v>
           </cell>
           <cell r="F30">
-            <v>887.52660000000003</v>
+            <v>887.55268064999996</v>
           </cell>
         </row>
         <row r="31">
@@ -1264,19 +1264,19 @@
             <v>February</v>
           </cell>
           <cell r="B31">
-            <v>866.69857182999999</v>
+            <v>866.62847237999995</v>
           </cell>
           <cell r="C31">
-            <v>627.08695911999996</v>
+            <v>627.91217326000003</v>
           </cell>
           <cell r="D31">
-            <v>682.38629286000003</v>
+            <v>685.60789922000004</v>
           </cell>
           <cell r="E31">
-            <v>680.21174999000004</v>
+            <v>682.85366234000003</v>
           </cell>
           <cell r="F31">
-            <v>746.61919999999998</v>
+            <v>746.69470000000001</v>
           </cell>
         </row>
         <row r="32">
@@ -1284,19 +1284,19 @@
             <v>March</v>
           </cell>
           <cell r="B32">
-            <v>583.54586855000002</v>
+            <v>583.53791102000002</v>
           </cell>
           <cell r="C32">
-            <v>449.06536534000003</v>
+            <v>449.17779856999999</v>
           </cell>
           <cell r="D32">
-            <v>551.05949040999997</v>
+            <v>551.82551949000003</v>
           </cell>
           <cell r="E32">
-            <v>556.11574703999997</v>
+            <v>556.64282671000001</v>
           </cell>
           <cell r="F32">
-            <v>557.48940000000005</v>
+            <v>557.49990000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -1619,19 +1619,19 @@
         <v>7</v>
       </c>
       <c r="B27" s="9">
-        <v>220.44996603999999</v>
+        <v>220.44996631999999</v>
       </c>
       <c r="C27" s="9">
-        <v>226.99519315000001</v>
+        <v>226.95825633000001</v>
       </c>
       <c r="D27" s="9">
-        <v>197.23451503999999</v>
+        <v>197.05462768999999</v>
       </c>
       <c r="E27" s="9">
-        <v>243.36463282</v>
+        <v>243.15411477999999</v>
       </c>
       <c r="F27" s="10">
-        <v>256.94930105999998</v>
+        <v>256.94560739000002</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1639,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="B28" s="9">
-        <v>613.95444449000001</v>
+        <v>613.95444473999999</v>
       </c>
       <c r="C28" s="9">
-        <v>445.14285796000001</v>
+        <v>445.21883613</v>
       </c>
       <c r="D28" s="9">
-        <v>415.75521348000001</v>
+        <v>417.05579720999998</v>
       </c>
       <c r="E28" s="9">
-        <v>485.15319199999999</v>
+        <v>485.11934280999998</v>
       </c>
       <c r="F28" s="10">
-        <v>514.81385582999997</v>
+        <v>514.82145361000005</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1659,19 +1659,19 @@
         <v>9</v>
       </c>
       <c r="B29" s="9">
-        <v>705.22987741999998</v>
+        <v>705.22987746000001</v>
       </c>
       <c r="C29" s="9">
-        <v>581.24577615999999</v>
+        <v>581.17146408999997</v>
       </c>
       <c r="D29" s="9">
-        <v>756.69861555</v>
+        <v>782.66832546000001</v>
       </c>
       <c r="E29" s="9">
-        <v>766.77735847999998</v>
+        <v>767.01030118000006</v>
       </c>
       <c r="F29" s="10">
-        <v>762.40477958999998</v>
+        <v>762.39734824000004</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1679,19 +1679,19 @@
         <v>10</v>
       </c>
       <c r="B30" s="9">
-        <v>889.88506514999995</v>
+        <v>889.91030916</v>
       </c>
       <c r="C30" s="9">
-        <v>869.88121919000002</v>
+        <v>870.11669567000001</v>
       </c>
       <c r="D30" s="9">
-        <v>850.26664846999995</v>
+        <v>744.49828066999999</v>
       </c>
       <c r="E30" s="9">
-        <v>844.28042373999995</v>
+        <v>844.34603315000004</v>
       </c>
       <c r="F30" s="10">
-        <v>887.52660000000003</v>
+        <v>887.55268064999996</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1699,19 +1699,19 @@
         <v>11</v>
       </c>
       <c r="B31" s="9">
-        <v>866.69857182999999</v>
+        <v>866.62847237999995</v>
       </c>
       <c r="C31" s="9">
-        <v>627.08695911999996</v>
+        <v>627.91217326000003</v>
       </c>
       <c r="D31" s="9">
-        <v>682.38629286000003</v>
+        <v>685.60789922000004</v>
       </c>
       <c r="E31" s="9">
-        <v>680.21174999000004</v>
+        <v>682.85366234000003</v>
       </c>
       <c r="F31" s="10">
-        <v>746.61919999999998</v>
+        <v>746.69470000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1719,19 +1719,19 @@
         <v>12</v>
       </c>
       <c r="B32" s="9">
-        <v>583.54586855000002</v>
+        <v>583.53791102000002</v>
       </c>
       <c r="C32" s="9">
-        <v>449.06536534000003</v>
+        <v>449.17779856999999</v>
       </c>
       <c r="D32" s="9">
-        <v>551.05949040999997</v>
+        <v>551.82551949000003</v>
       </c>
       <c r="E32" s="9">
-        <v>556.11574703999997</v>
+        <v>556.64282671000001</v>
       </c>
       <c r="F32" s="10">
-        <v>557.48940000000005</v>
+        <v>557.49990000000003</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13" x14ac:dyDescent="0.3">
@@ -1740,23 +1740,23 @@
       </c>
       <c r="B33" s="11">
         <f>+SUM(B27:B32)</f>
-        <v>3879.7637934799995</v>
+        <v>3879.7109810800002</v>
       </c>
       <c r="C33" s="11">
         <f>+SUM(C27:C32)</f>
-        <v>3199.4173709199999</v>
+        <v>3200.5552240500001</v>
       </c>
       <c r="D33" s="11">
         <f>+SUM(D27:D32)</f>
-        <v>3453.4007758099997</v>
+        <v>3378.7104497400005</v>
       </c>
       <c r="E33" s="11">
         <f>+SUM(E27:E32)</f>
-        <v>3575.9031040699997</v>
+        <v>3579.1262809700002</v>
       </c>
       <c r="F33" s="12">
         <f>+SUM(F27:F32)</f>
-        <v>3725.8031364799999</v>
+        <v>3725.9116898900002</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
